--- a/AdminToolkitMasterSpreadsheet.xlsx
+++ b/AdminToolkitMasterSpreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jisc365-my.sharepoint.com/personal/colm_blake_jisc_ac_uk/Documents/powershell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jisc365-my.sharepoint.com/personal/colm_blake_jisc_ac_uk/Documents/AdminToolkit-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{C7460D67-3E2C-460A-A403-0AE0C16AC8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BEB38A-2707-4F8F-BE69-D45AD85C9E7E}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{C7460D67-3E2C-460A-A403-0AE0C16AC8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A137952B-E626-4D04-9F4C-36EBB1A7B6EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New-UnifiedGroup" sheetId="3" r:id="rId1"/>
@@ -33,6 +33,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Colm Blake</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9337A053-5068-41B8-9263-B879A66C566A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Colm Blake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+for paramaters settings see : 
+https://docs.microsoft.com/en-us/powershell/module/exchange/new-unifiedgroup?view=exchange-ps</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Colm Blake</author>
@@ -60,6 +95,42 @@
           <t xml:space="preserve">
 for paramaters settings see : 
 https://docs.microsoft.com/en-us/powershell/module/skype/new-cscallqueue?view=skype-ps
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Colm Blake</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{41912A31-ADA8-4A19-89A7-A0EBBCF4AEA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Colm Blake:
+for paramaters settings see : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://docs.microsoft.com/en-us/powershell/module/azuread/new-azureadgroup?view=azureadps-2.0
 </t>
         </r>
       </text>
@@ -483,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95519C6-17A0-496C-B010-0F1FDBD9EA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95519C6-17A0-496C-B010-0F1FDBD9EA83}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +578,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -514,9 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE31B73-C664-4628-BB44-4950B8E67F0E}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -595,11 +665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,16 +684,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -632,12 +697,13 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="79c6cfb5-50bc-4fca-81ee-f60fcea9a646" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002577314970E7294D94BC26E8A265E2A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93efeef5fc16a21db8a380bc867e2f17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b69bb71-6019-41dd-ba05-b3e84d67f2c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39cf320990b3b66fe5054286f7cb71c7" ns2:_="">
     <xsd:import namespace="1b69bb71-6019-41dd-ba05-b3e84d67f2c7"/>
@@ -809,7 +875,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="79c6cfb5-50bc-4fca-81ee-f60fcea9a646" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2BC079-1A8B-4436-ADC5-BEF918D24128}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF6D6E6-8666-4AC5-AD89-4D88EA748C46}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -825,23 +904,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2BC079-1A8B-4436-ADC5-BEF918D24128}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979F784F-78C1-4B64-AA3A-C4E007C273A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{822B640B-D0CB-4C86-BDBF-787B0FEF3370}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -857,4 +920,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979F784F-78C1-4B64-AA3A-C4E007C273A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>